--- a/diagrams/juryFull/JuryFull.xlsx
+++ b/diagrams/juryFull/JuryFull.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\biy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\juryFull\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F12DB-5EF1-40FE-B1DA-03CCECEFAD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58E2AD-9BB9-4C79-8785-1DB50E682AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="3015" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Jury" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="172">
   <si>
     <t>pin</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>Resume Competition</t>
+  </si>
+  <si>
+    <t>owlcms/fop/juryDeliberation/A</t>
   </si>
 </sst>
 </file>
@@ -981,7 +984,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -989,17 +992,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CC8FA-5BAB-452A-BED2-2AD75A3C9C5E}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
@@ -1804,7 +1807,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>113</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -1908,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>158</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>163</v>
       </c>
@@ -2035,150 +2038,141 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="4">
-        <v>62</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="G63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="B63" s="5">
+        <v>25</v>
+      </c>
+      <c r="C63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="4">
-        <v>63</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="G64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" t="s">
-        <v>19</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>10</v>
+        <v>158</v>
+      </c>
+      <c r="B64" s="5">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>171</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="9">
-        <v>31</v>
+        <v>163</v>
+      </c>
+      <c r="B65" s="5">
+        <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="7"/>
+        <v>171</v>
+      </c>
       <c r="E65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="9">
-        <v>33</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1000</v>
+        <v>18</v>
+      </c>
+      <c r="B66" s="4">
+        <v>62</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="G66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="9">
-        <v>35</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1000</v>
+        <v>20</v>
+      </c>
+      <c r="B67" s="4">
+        <v>63</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="G67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="5">
+        <v>94</v>
+      </c>
+      <c r="B68" s="9">
         <v>31</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="7"/>
       <c r="E68" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="5">
+        <v>99</v>
+      </c>
+      <c r="B69" s="9">
         <v>33</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="7"/>
       <c r="E69" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" s="5">
+        <v>104</v>
+      </c>
+      <c r="B70" s="9">
         <v>35</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="7"/>
       <c r="E70" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B71" s="5">
         <v>31</v>
@@ -2187,15 +2181,15 @@
         <v>16</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B72" s="5">
         <v>33</v>
@@ -2204,15 +2198,15 @@
         <v>16</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B73" s="5">
         <v>35</v>
@@ -2221,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>5</v>
@@ -2229,7 +2223,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B74" s="5">
         <v>31</v>
@@ -2238,7 +2232,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>3</v>
@@ -2246,182 +2240,168 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B75" s="5">
         <v>33</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" t="s">
-        <v>32</v>
+      <c r="C75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B76" s="5">
         <v>35</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" t="s">
-        <v>32</v>
+      <c r="C76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B77" s="5">
         <v>31</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>4</v>
+      <c r="C77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B78" s="5">
         <v>33</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>32</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B79" s="5">
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="4">
-        <v>60</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="B80" s="5">
+        <v>31</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>39</v>
-      </c>
-      <c r="B81" s="4">
-        <v>61</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="G81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>31</v>
+        <v>159</v>
+      </c>
+      <c r="B81" s="5">
+        <v>33</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="9">
-        <v>37</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="7"/>
+        <v>164</v>
+      </c>
+      <c r="B82" s="5">
+        <v>35</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F82" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>100</v>
-      </c>
-      <c r="B83" s="9">
-        <v>39</v>
+        <v>154</v>
+      </c>
+      <c r="B83" s="5">
+        <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="7"/>
+        <v>171</v>
+      </c>
       <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="9">
-        <v>41</v>
+        <v>159</v>
+      </c>
+      <c r="B84" s="5">
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="7"/>
+        <v>171</v>
+      </c>
       <c r="E84" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="B85" s="5">
-        <v>37</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>5</v>
@@ -2429,92 +2409,97 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="5">
-        <v>39</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="B86" s="4">
+        <v>60</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="G86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>120</v>
-      </c>
-      <c r="B87" s="5">
-        <v>41</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="B87" s="4">
+        <v>61</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="G87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="5">
+        <v>95</v>
+      </c>
+      <c r="B88" s="9">
         <v>37</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="7"/>
       <c r="E88" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="5">
+        <v>100</v>
+      </c>
+      <c r="B89" s="9">
         <v>39</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="7"/>
       <c r="E89" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="5">
+        <v>105</v>
+      </c>
+      <c r="B90" s="9">
         <v>41</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="7"/>
       <c r="E90" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B91" s="5">
         <v>37</v>
@@ -2523,24 +2508,24 @@
         <v>16</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B92" s="5">
         <v>39</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" t="s">
-        <v>35</v>
+      <c r="C92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>3</v>
@@ -2548,44 +2533,50 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B93" s="5">
         <v>41</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" t="s">
-        <v>35</v>
+      <c r="C93" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B94" s="5">
         <v>37</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>4</v>
+      <c r="C94" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="B95" s="5">
         <v>39</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>4</v>
+      <c r="C95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>5</v>
@@ -2593,13 +2584,16 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B96" s="5">
         <v>41</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>4</v>
+      <c r="C96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>5</v>
@@ -2607,106 +2601,92 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="4">
-        <v>58</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="G97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" s="5">
+        <v>37</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>35</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="4">
-        <v>59</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="G98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
+      </c>
+      <c r="B98" s="5">
+        <v>39</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="9">
-        <v>43</v>
-      </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="B99" s="5">
+        <v>41</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
       <c r="E99" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F99" s="2">
-        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="9">
-        <v>45</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="B100" s="5">
+        <v>37</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="9">
-        <v>47</v>
-      </c>
-      <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="B101" s="5">
+        <v>39</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="B102" s="5">
-        <v>43</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -2714,33 +2694,27 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="B103" s="5">
-        <v>45</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="B104" s="5">
-        <v>47</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>171</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>5</v>
@@ -2748,115 +2722,120 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B105" s="5">
-        <v>43</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C105" t="s">
+        <v>171</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106" s="5">
-        <v>45</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="B106" s="4">
+        <v>58</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="G106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" s="5">
-        <v>47</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="B107" s="4">
+        <v>59</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="G107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" s="5">
+        <v>96</v>
+      </c>
+      <c r="B108" s="9">
         <v>43</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="7"/>
       <c r="E108" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" s="5">
+        <v>101</v>
+      </c>
+      <c r="B109" s="9">
         <v>45</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" t="s">
-        <v>45</v>
-      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="7"/>
       <c r="E109" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>151</v>
-      </c>
-      <c r="B110" s="5">
+        <v>106</v>
+      </c>
+      <c r="B110" s="9">
         <v>47</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>45</v>
-      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="7"/>
       <c r="E110" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B111" s="5">
         <v>43</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>4</v>
+      <c r="C111" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>5</v>
@@ -2864,27 +2843,33 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B112" s="5">
         <v>45</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>4</v>
+      <c r="C112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="B113" s="5">
         <v>47</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>4</v>
+      <c r="C113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>5</v>
@@ -2892,140 +2877,129 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" s="4">
-        <v>56</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="G114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>45</v>
+        <v>126</v>
+      </c>
+      <c r="B114" s="5">
+        <v>43</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="4">
-        <v>57</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="G115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" t="s">
-        <v>19</v>
-      </c>
-      <c r="I115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>44</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>97</v>
-      </c>
-      <c r="B116" s="9">
-        <v>49</v>
-      </c>
-      <c r="C116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="B116" s="5">
+        <v>47</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E116" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>102</v>
-      </c>
-      <c r="B117" s="9">
-        <v>51</v>
-      </c>
-      <c r="C117" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="B117" s="5">
+        <v>43</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="E117" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>107</v>
-      </c>
-      <c r="B118" s="9">
-        <v>53</v>
-      </c>
-      <c r="C118" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="7"/>
+        <v>146</v>
+      </c>
+      <c r="B118" s="5">
+        <v>45</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
       <c r="E118" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F118" s="2">
-        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B119" s="5">
-        <v>49</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>45</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B120" s="5">
-        <v>51</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="B121" s="5">
-        <v>53</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>5</v>
@@ -3033,33 +3007,27 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B122" s="5">
-        <v>49</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B123" s="5">
-        <v>51</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="C123" t="s">
+        <v>171</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>5</v>
@@ -3067,16 +3035,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B124" s="5">
-        <v>53</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="C124" t="s">
+        <v>171</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>5</v>
@@ -3084,130 +3049,378 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B125" s="5">
-        <v>49</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="C125" t="s">
+        <v>171</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="5">
-        <v>51</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" t="s">
-        <v>52</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>3</v>
+        <v>46</v>
+      </c>
+      <c r="B126" s="4">
+        <v>56</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="G126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>152</v>
-      </c>
-      <c r="B127" s="5">
-        <v>53</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" t="s">
-        <v>52</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="B127" s="4">
+        <v>57</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="G127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" t="s">
+        <v>19</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
+        <v>97</v>
+      </c>
+      <c r="B128" s="9">
+        <v>49</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" s="9">
+        <v>51</v>
+      </c>
+      <c r="C129" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="9">
+        <v>53</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" s="5">
+        <v>49</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="5">
+        <v>51</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" s="5">
+        <v>53</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>127</v>
+      </c>
+      <c r="B134" s="5">
+        <v>49</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="5">
+        <v>51</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="5">
+        <v>53</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="5">
+        <v>49</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="5">
+        <v>51</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>52</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="5">
+        <v>53</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
         <v>157</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B140" s="5">
         <v>49</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" t="s">
+      <c r="E140" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
         <v>162</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B141" s="5">
         <v>51</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" t="s">
+      <c r="E141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
         <v>167</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B142" s="5">
         <v>53</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" t="s">
+      <c r="E142" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>157</v>
+      </c>
+      <c r="B143" s="5">
+        <v>49</v>
+      </c>
+      <c r="C143" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="5">
+        <v>51</v>
+      </c>
+      <c r="C144" t="s">
+        <v>171</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="5">
+        <v>53</v>
+      </c>
+      <c r="C145" t="s">
+        <v>171</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
         <v>55</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B146" s="4">
         <v>54</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="G131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="C146" s="1"/>
+      <c r="G146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" t="s">
         <v>19</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132" t="s">
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B147" s="4">
         <v>55</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="G132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="C147" s="1"/>
+      <c r="G147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H147" t="s">
         <v>19</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="I147" s="2" t="s">
         <v>53</v>
       </c>
     </row>

--- a/diagrams/juryFull/JuryFull.xlsx
+++ b/diagrams/juryFull/JuryFull.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\juryFull\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58E2AD-9BB9-4C79-8785-1DB50E682AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D858704-F174-4A70-BBF2-70DF403E1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Jury" sheetId="2" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Summon All</t>
   </si>
   <si>
-    <t>Summon TC</t>
-  </si>
-  <si>
     <t>Deliberate</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>controller</t>
-  </si>
-  <si>
     <t>deliberation</t>
   </si>
   <si>
@@ -550,6 +544,12 @@
   </si>
   <si>
     <t>owlcms/fop/juryDeliberation/A</t>
+  </si>
+  <si>
+    <t>Challenge</t>
+  </si>
+  <si>
+    <t>challenge</t>
   </si>
 </sst>
 </file>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CC8FA-5BAB-452A-BED2-2AD75A3C9C5E}">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1031,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>1</v>
@@ -1051,15 +1051,15 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -1068,15 +1068,15 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>9</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1102,15 +1102,15 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>19</v>
@@ -1119,15 +1119,15 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -1136,10 +1136,10 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1153,15 +1153,15 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="9">
         <v>13</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="9">
         <v>12</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="9">
         <v>11</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="10">
         <v>13</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="10">
         <v>12</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="10">
         <v>11</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="10">
         <v>13</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="10">
         <v>12</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="10">
         <v>11</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B18" s="10">
         <v>13</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="10">
         <v>12</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="10">
         <v>11</v>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="9">
         <v>9</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="9">
         <v>8</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="9">
         <v>7</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="5">
         <v>9</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="5">
         <v>8</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="5">
         <v>7</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="5">
         <v>9</v>
@@ -1476,7 +1476,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>3</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="5">
         <v>8</v>
@@ -1493,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="5">
         <v>7</v>
@@ -1510,7 +1510,7 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>5</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B31" s="5">
         <v>9</v>
@@ -1527,7 +1527,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="5">
         <v>8</v>
@@ -1544,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>3</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" s="5">
         <v>7</v>
@@ -1561,7 +1561,7 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="8">
         <v>6</v>
@@ -1579,7 +1579,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I34" s="2">
         <v>2</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="9">
         <v>5</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" s="9">
         <v>4</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="9">
         <v>3</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="5">
         <v>5</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="5">
         <v>3</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="5">
         <v>5</v>
@@ -1680,7 +1680,7 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="5">
         <v>4</v>
@@ -1697,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="5">
         <v>3</v>
@@ -1714,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>5</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="5">
         <v>5</v>
@@ -1731,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="5">
         <v>4</v>
@@ -1748,7 +1748,7 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" s="5">
         <v>3</v>
@@ -1765,7 +1765,7 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
@@ -1783,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I47" s="2">
         <v>3</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="9">
         <v>25</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" s="9">
         <v>27</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50" s="9">
         <v>29</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" s="5">
         <v>25</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" s="5">
         <v>27</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="5">
         <v>29</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B54" s="5">
         <v>25</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B55" s="5">
         <v>27</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" s="5">
         <v>29</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B57" s="5">
         <v>25</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B58" s="5">
         <v>27</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B59" s="5">
         <v>29</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B60" s="5">
         <v>25</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B61" s="5">
         <v>27</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B62" s="5">
         <v>29</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B63" s="5">
         <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>5</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B64" s="5">
         <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>5</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B65" s="5">
         <v>29</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>5</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B68" s="9">
         <v>31</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B69" s="9">
         <v>33</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70" s="9">
         <v>35</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" s="5">
         <v>31</v>
@@ -2181,7 +2181,7 @@
         <v>16</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>5</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B72" s="5">
         <v>33</v>
@@ -2198,7 +2198,7 @@
         <v>16</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B73" s="5">
         <v>35</v>
@@ -2215,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>5</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" s="5">
         <v>31</v>
@@ -2232,7 +2232,7 @@
         <v>16</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>3</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" s="5">
         <v>33</v>
@@ -2249,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>5</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B76" s="5">
         <v>35</v>
@@ -2266,7 +2266,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>5</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B77" s="5">
         <v>31</v>
@@ -2283,7 +2283,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>3</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B78" s="5">
         <v>33</v>
@@ -2300,7 +2300,7 @@
         <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>3</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" s="5">
         <v>35</v>
@@ -2317,7 +2317,7 @@
         <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>3</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80" s="5">
         <v>31</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B81" s="5">
         <v>33</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B82" s="5">
         <v>35</v>
@@ -2367,13 +2367,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B83" s="5">
         <v>31</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="5">
         <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>5</v>
@@ -2395,13 +2395,13 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B85" s="5">
         <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>5</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B86" s="4">
         <v>60</v>
@@ -2422,12 +2422,12 @@
         <v>19</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B87" s="4">
         <v>61</v>
@@ -2440,12 +2440,12 @@
         <v>19</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B88" s="9">
         <v>37</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89" s="9">
         <v>39</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B90" s="9">
         <v>41</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B91" s="5">
         <v>37</v>
@@ -2508,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B92" s="5">
         <v>39</v>
@@ -2525,7 +2525,7 @@
         <v>16</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>3</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B93" s="5">
         <v>41</v>
@@ -2542,7 +2542,7 @@
         <v>16</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>5</v>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B94" s="5">
         <v>37</v>
@@ -2559,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B95" s="5">
         <v>39</v>
@@ -2576,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>5</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B96" s="5">
         <v>41</v>
@@ -2593,7 +2593,7 @@
         <v>16</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>5</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B97" s="5">
         <v>37</v>
@@ -2610,7 +2610,7 @@
         <v>16</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>3</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B98" s="5">
         <v>39</v>
@@ -2627,7 +2627,7 @@
         <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>3</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B99" s="5">
         <v>41</v>
@@ -2644,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>3</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B100" s="5">
         <v>37</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B101" s="5">
         <v>39</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B102" s="5">
         <v>41</v>
@@ -2694,13 +2694,13 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B103" s="5">
         <v>37</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>5</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104" s="5">
         <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>5</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B105" s="5">
         <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>5</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B106" s="4">
         <v>58</v>
@@ -2749,12 +2749,12 @@
         <v>19</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B107" s="4">
         <v>59</v>
@@ -2767,12 +2767,12 @@
         <v>19</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B108" s="9">
         <v>43</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B109" s="9">
         <v>45</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B110" s="9">
         <v>47</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" s="5">
         <v>43</v>
@@ -2835,7 +2835,7 @@
         <v>16</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>5</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B112" s="5">
         <v>45</v>
@@ -2852,7 +2852,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>3</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B113" s="5">
         <v>47</v>
@@ -2869,7 +2869,7 @@
         <v>16</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>5</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B114" s="5">
         <v>43</v>
@@ -2886,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>3</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B115" s="5">
         <v>45</v>
@@ -2903,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>5</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B116" s="5">
         <v>47</v>
@@ -2920,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>5</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B117" s="5">
         <v>43</v>
@@ -2937,7 +2937,7 @@
         <v>16</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>3</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B118" s="5">
         <v>45</v>
@@ -2954,7 +2954,7 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>3</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B119" s="5">
         <v>47</v>
@@ -2971,7 +2971,7 @@
         <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>3</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B120" s="5">
         <v>43</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B121" s="5">
         <v>45</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B122" s="5">
         <v>47</v>
@@ -3021,13 +3021,13 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B123" s="5">
         <v>43</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>5</v>
@@ -3035,13 +3035,13 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B124" s="5">
         <v>45</v>
       </c>
       <c r="C124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>5</v>
@@ -3049,13 +3049,13 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B125" s="5">
         <v>47</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>5</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B126" s="4">
         <v>56</v>
@@ -3076,12 +3076,12 @@
         <v>19</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B127" s="4">
         <v>57</v>
@@ -3094,12 +3094,12 @@
         <v>19</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B128" s="9">
         <v>49</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B129" s="9">
         <v>51</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B130" s="9">
         <v>53</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B131" s="5">
         <v>49</v>
@@ -3162,7 +3162,7 @@
         <v>16</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>5</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B132" s="5">
         <v>51</v>
@@ -3179,7 +3179,7 @@
         <v>16</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>3</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B133" s="5">
         <v>53</v>
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>5</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B134" s="5">
         <v>49</v>
@@ -3213,7 +3213,7 @@
         <v>16</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>3</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B135" s="5">
         <v>51</v>
@@ -3230,7 +3230,7 @@
         <v>16</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>5</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B136" s="5">
         <v>53</v>
@@ -3247,7 +3247,7 @@
         <v>16</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>5</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B137" s="5">
         <v>49</v>
@@ -3264,7 +3264,7 @@
         <v>16</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>3</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B138" s="5">
         <v>51</v>
@@ -3281,7 +3281,7 @@
         <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>3</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B139" s="5">
         <v>53</v>
@@ -3298,7 +3298,7 @@
         <v>16</v>
       </c>
       <c r="D139" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>3</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B140" s="5">
         <v>49</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B141" s="5">
         <v>51</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B142" s="5">
         <v>53</v>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B143" s="5">
         <v>49</v>
       </c>
       <c r="C143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>5</v>
@@ -3362,13 +3362,13 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B144" s="5">
         <v>51</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>5</v>
@@ -3376,13 +3376,13 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B145" s="5">
         <v>53</v>
       </c>
       <c r="C145" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>5</v>
@@ -3390,7 +3390,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B146" s="4">
         <v>54</v>
@@ -3403,12 +3403,12 @@
         <v>19</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B147" s="4">
         <v>55</v>
@@ -3421,7 +3421,7 @@
         <v>19</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/diagrams/juryFull/JuryFull.xlsx
+++ b/diagrams/juryFull/JuryFull.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\juryFull\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D858704-F174-4A70-BBF2-70DF403E1A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CBD9F-CB26-49E6-A990-84F1D159886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Jury" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="173">
   <si>
     <t>pin</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>challenge</t>
+  </si>
+  <si>
+    <t>owlcms/fop/challenge/A</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CC8FA-5BAB-452A-BED2-2AD75A3C9C5E}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2082,148 +2085,139 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="4">
-        <v>62</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="G66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>11</v>
+        <v>151</v>
+      </c>
+      <c r="B66" s="5">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="4">
-        <v>63</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="G67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
+      </c>
+      <c r="B67" s="5">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="9">
-        <v>31</v>
+        <v>161</v>
+      </c>
+      <c r="B68" s="5">
+        <v>29</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="7"/>
+        <v>172</v>
+      </c>
       <c r="E68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="9">
-        <v>33</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1000</v>
+        <v>18</v>
+      </c>
+      <c r="B69" s="4">
+        <v>62</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="G69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>102</v>
-      </c>
-      <c r="B70" s="9">
-        <v>35</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="2">
-        <v>1000</v>
+        <v>20</v>
+      </c>
+      <c r="B70" s="4">
+        <v>63</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="G70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
+        <v>19</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="5">
+        <v>92</v>
+      </c>
+      <c r="B71" s="9">
         <v>31</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7"/>
       <c r="E71" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="5">
+        <v>97</v>
+      </c>
+      <c r="B72" s="9">
         <v>33</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7"/>
       <c r="E72" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73" s="5">
+        <v>102</v>
+      </c>
+      <c r="B73" s="9">
         <v>35</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7"/>
       <c r="E73" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B74" s="5">
         <v>31</v>
@@ -2232,15 +2226,15 @@
         <v>16</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B75" s="5">
         <v>33</v>
@@ -2249,15 +2243,15 @@
         <v>16</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B76" s="5">
         <v>35</v>
@@ -2266,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>5</v>
@@ -2274,7 +2268,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B77" s="5">
         <v>31</v>
@@ -2283,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>3</v>
@@ -2291,78 +2285,87 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B78" s="5">
         <v>33</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" t="s">
-        <v>30</v>
+      <c r="C78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B79" s="5">
         <v>35</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
-        <v>30</v>
+      <c r="C79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B80" s="5">
         <v>31</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>4</v>
+      <c r="C80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B81" s="5">
         <v>33</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B82" s="5">
         <v>35</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2372,8 +2375,8 @@
       <c r="B83" s="5">
         <v>31</v>
       </c>
-      <c r="C83" t="s">
-        <v>169</v>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
@@ -2386,8 +2389,8 @@
       <c r="B84" s="5">
         <v>33</v>
       </c>
-      <c r="C84" t="s">
-        <v>169</v>
+      <c r="C84" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>5</v>
@@ -2400,8 +2403,8 @@
       <c r="B85" s="5">
         <v>35</v>
       </c>
-      <c r="C85" t="s">
-        <v>169</v>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>5</v>
@@ -2409,106 +2412,83 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="4">
-        <v>60</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="G86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>30</v>
+        <v>152</v>
+      </c>
+      <c r="B86" s="5">
+        <v>31</v>
+      </c>
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="4">
-        <v>61</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="G87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>29</v>
+        <v>157</v>
+      </c>
+      <c r="B87" s="5">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="9">
-        <v>37</v>
+        <v>162</v>
+      </c>
+      <c r="B88" s="5">
+        <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="7"/>
+        <v>169</v>
+      </c>
       <c r="E88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="9">
-        <v>39</v>
+        <v>152</v>
+      </c>
+      <c r="B89" s="5">
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="7"/>
+        <v>172</v>
+      </c>
       <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="9">
-        <v>41</v>
+        <v>157</v>
+      </c>
+      <c r="B90" s="5">
+        <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="7"/>
+        <v>172</v>
+      </c>
       <c r="E90" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="2">
-        <v>1000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="B91" s="5">
-        <v>37</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
@@ -2516,92 +2496,97 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="5">
-        <v>39</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+      <c r="B92" s="4">
+        <v>60</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="G92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="5">
-        <v>41</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B93" s="4">
+        <v>61</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="G93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>123</v>
-      </c>
-      <c r="B94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9">
         <v>37</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="7"/>
       <c r="E94" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" s="5">
+        <v>98</v>
+      </c>
+      <c r="B95" s="9">
         <v>39</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="7"/>
       <c r="E95" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>133</v>
-      </c>
-      <c r="B96" s="5">
+        <v>103</v>
+      </c>
+      <c r="B96" s="9">
         <v>41</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="7"/>
       <c r="E96" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B97" s="5">
         <v>37</v>
@@ -2610,266 +2595,255 @@
         <v>16</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B98" s="5">
         <v>39</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" t="s">
-        <v>33</v>
+      <c r="C98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B99" s="5">
         <v>41</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" t="s">
-        <v>33</v>
+      <c r="C99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B100" s="5">
         <v>37</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>4</v>
+      <c r="C100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B101" s="5">
         <v>39</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>4</v>
+      <c r="C101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B102" s="5">
         <v>41</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>4</v>
+      <c r="C102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B103" s="5">
         <v>37</v>
       </c>
-      <c r="C103" t="s">
-        <v>169</v>
+      <c r="C103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B104" s="5">
         <v>39</v>
       </c>
-      <c r="C104" t="s">
-        <v>169</v>
+      <c r="C104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>33</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B105" s="5">
         <v>41</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>153</v>
+      </c>
+      <c r="B106" s="5">
+        <v>37</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" s="5">
+        <v>39</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="5">
+        <v>41</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" s="5">
+        <v>37</v>
+      </c>
+      <c r="C109" t="s">
         <v>169</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" t="s">
+      <c r="E109" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" s="5">
         <v>39</v>
       </c>
-      <c r="B106" s="4">
-        <v>58</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="G106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106" t="s">
-        <v>19</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="4">
-        <v>59</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="G107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H107" t="s">
-        <v>19</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>94</v>
-      </c>
-      <c r="B108" s="9">
-        <v>43</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>99</v>
-      </c>
-      <c r="B109" s="9">
-        <v>45</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F109" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
-        <v>104</v>
-      </c>
-      <c r="B110" s="9">
-        <v>47</v>
-      </c>
       <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="7"/>
+        <v>169</v>
+      </c>
       <c r="E110" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F110" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="B111" s="5">
-        <v>43</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="C111" t="s">
+        <v>169</v>
+      </c>
       <c r="E111" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B112" s="5">
-        <v>45</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="C112" t="s">
+        <v>172</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="B113" s="5">
-        <v>47</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>172</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>5</v>
@@ -2877,115 +2851,120 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="B114" s="5">
-        <v>43</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C114" t="s">
+        <v>172</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B115" s="5">
-        <v>45</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="B115" s="4">
+        <v>58</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="G115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>134</v>
-      </c>
-      <c r="B116" s="5">
-        <v>47</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="B116" s="4">
+        <v>59</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="G116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>139</v>
-      </c>
-      <c r="B117" s="5">
+        <v>94</v>
+      </c>
+      <c r="B117" s="9">
         <v>43</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="7"/>
       <c r="E117" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>144</v>
-      </c>
-      <c r="B118" s="5">
+        <v>99</v>
+      </c>
+      <c r="B118" s="9">
         <v>45</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" t="s">
-        <v>43</v>
-      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="7"/>
       <c r="E118" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" s="5">
+        <v>104</v>
+      </c>
+      <c r="B119" s="9">
         <v>47</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" t="s">
-        <v>43</v>
-      </c>
+      <c r="C119" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="7"/>
       <c r="E119" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="B120" s="5">
         <v>43</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>4</v>
+      <c r="C120" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>5</v>
@@ -2993,27 +2972,33 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B121" s="5">
         <v>45</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>4</v>
+      <c r="C121" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B122" s="5">
         <v>47</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>4</v>
+      <c r="C122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>5</v>
@@ -3021,27 +3006,33 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="B123" s="5">
         <v>43</v>
       </c>
-      <c r="C123" t="s">
-        <v>169</v>
+      <c r="C123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="B124" s="5">
         <v>45</v>
       </c>
-      <c r="C124" t="s">
-        <v>169</v>
+      <c r="C124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>5</v>
@@ -3049,13 +3040,16 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B125" s="5">
         <v>47</v>
       </c>
-      <c r="C125" t="s">
-        <v>169</v>
+      <c r="C125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>5</v>
@@ -3063,364 +3057,583 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>44</v>
-      </c>
-      <c r="B126" s="4">
-        <v>56</v>
-      </c>
-      <c r="C126" s="1"/>
-      <c r="G126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H126" t="s">
-        <v>19</v>
-      </c>
-      <c r="I126" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="5">
         <v>43</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="5">
         <v>45</v>
       </c>
-      <c r="B127" s="4">
-        <v>57</v>
-      </c>
-      <c r="C127" s="1"/>
-      <c r="G127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H127" t="s">
-        <v>19</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>42</v>
+      <c r="C127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="5">
+        <v>47</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="5">
+        <v>43</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" s="5">
+        <v>45</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>164</v>
+      </c>
+      <c r="B131" s="5">
+        <v>47</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="5">
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
+        <v>169</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="5">
+        <v>45</v>
+      </c>
+      <c r="C133" t="s">
+        <v>169</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="5">
+        <v>47</v>
+      </c>
+      <c r="C134" t="s">
+        <v>169</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="5">
+        <v>43</v>
+      </c>
+      <c r="C135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="5">
+        <v>45</v>
+      </c>
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>164</v>
+      </c>
+      <c r="B137" s="5">
+        <v>47</v>
+      </c>
+      <c r="C137" t="s">
+        <v>172</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="4">
+        <v>56</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="G138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" s="4">
+        <v>57</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="G139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H139" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
         <v>95</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B140" s="9">
         <v>49</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C140" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F128" s="2">
+      <c r="D140" s="7"/>
+      <c r="E140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F140" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
         <v>100</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B141" s="9">
         <v>51</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C141" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F129" s="2">
+      <c r="D141" s="7"/>
+      <c r="E141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" t="s">
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
         <v>105</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B142" s="9">
         <v>53</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C142" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="7"/>
-      <c r="E130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" s="2">
+      <c r="D142" s="7"/>
+      <c r="E142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" t="s">
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
         <v>110</v>
-      </c>
-      <c r="B131" s="5">
-        <v>49</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" t="s">
-        <v>115</v>
-      </c>
-      <c r="B132" s="5">
-        <v>51</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" t="s">
-        <v>120</v>
-      </c>
-      <c r="B133" s="5">
-        <v>53</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>125</v>
-      </c>
-      <c r="B134" s="5">
-        <v>49</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" s="5">
-        <v>51</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" s="5">
-        <v>53</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" s="5">
-        <v>49</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" s="5">
-        <v>51</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" t="s">
-        <v>50</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" t="s">
-        <v>150</v>
-      </c>
-      <c r="B139" s="5">
-        <v>53</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>50</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" t="s">
-        <v>155</v>
-      </c>
-      <c r="B140" s="5">
-        <v>49</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
-        <v>160</v>
-      </c>
-      <c r="B141" s="5">
-        <v>51</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
-        <v>165</v>
-      </c>
-      <c r="B142" s="5">
-        <v>53</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>155</v>
       </c>
       <c r="B143" s="5">
         <v>49</v>
       </c>
-      <c r="C143" t="s">
-        <v>169</v>
+      <c r="C143" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="B144" s="5">
         <v>51</v>
       </c>
-      <c r="C144" t="s">
-        <v>169</v>
+      <c r="C144" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B145" s="5">
         <v>53</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" s="5">
+        <v>49</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>130</v>
+      </c>
+      <c r="B147" s="5">
+        <v>51</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="5">
+        <v>53</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" s="5">
+        <v>49</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="5">
+        <v>51</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>50</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5">
+        <v>53</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>50</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="5">
+        <v>49</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" s="5">
+        <v>51</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="5">
+        <v>53</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="5">
+        <v>49</v>
+      </c>
+      <c r="C155" t="s">
         <v>169</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" t="s">
+      <c r="E155" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156" s="5">
+        <v>51</v>
+      </c>
+      <c r="C156" t="s">
+        <v>169</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="5">
         <v>53</v>
       </c>
-      <c r="B146" s="4">
+      <c r="C157" t="s">
+        <v>169</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" s="5">
+        <v>49</v>
+      </c>
+      <c r="C158" t="s">
+        <v>172</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="5">
+        <v>51</v>
+      </c>
+      <c r="C159" t="s">
+        <v>172</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="5">
+        <v>53</v>
+      </c>
+      <c r="C160" t="s">
+        <v>172</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" s="4">
         <v>54</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="G146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H146" t="s">
+      <c r="C161" s="1"/>
+      <c r="G161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H161" t="s">
         <v>19</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="I161" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
-      <c r="A147" t="s">
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
         <v>54</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B162" s="4">
         <v>55</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="G147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H147" t="s">
+      <c r="C162" s="1"/>
+      <c r="G162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H162" t="s">
         <v>19</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="I162" s="2" t="s">
         <v>51</v>
       </c>
     </row>
